--- a/data_quarter/zb/工业/主要工业产品的销售与库存/原铝(电解铝).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/原铝(电解铝).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,21 @@
           <t>原铝(电解铝)销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>原铝(电解铝)产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>原铝(电解铝)销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,45 +481,63 @@
       <c r="E2" t="n">
         <v>152.3</v>
       </c>
+      <c r="F2" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.8</v>
+        <v>98.7</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5</v>
+        <v>22.2</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>505.1</v>
+        <v>326.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.299999999999997</v>
+      </c>
+      <c r="G3" t="n">
+        <v>173.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.7</v>
+        <v>97.8</v>
       </c>
       <c r="C4" t="n">
-        <v>22.2</v>
+        <v>11.5</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>326.1</v>
+        <v>505.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,11 +550,17 @@
       <c r="E5" t="n">
         <v>713.1</v>
       </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -541,49 +575,67 @@
       <c r="E6" t="n">
         <v>710.10865</v>
       </c>
+      <c r="F6" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>710.10865</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C7" t="n">
-        <v>-16.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E7" t="n">
-        <v>2291.84138</v>
+        <v>1502.92436</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.100000000000009</v>
+      </c>
+      <c r="G7" t="n">
+        <v>792.81571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.300000000000001</v>
+        <v>-16.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>1502.92436</v>
+        <v>2291.84138</v>
+      </c>
+      <c r="F8" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>788.9170199999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -598,11 +650,17 @@
       <c r="E9" t="n">
         <v>3107.70229</v>
       </c>
+      <c r="F9" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>815.8609100000003</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -617,49 +675,67 @@
       <c r="E10" t="n">
         <v>785.32101</v>
       </c>
+      <c r="F10" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>785.32101</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.7</v>
+        <v>99</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1</v>
+        <v>20.1</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.5</v>
+        <v>-0.6</v>
       </c>
       <c r="E11" t="n">
-        <v>2327.44371</v>
+        <v>1627.56517</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="G11" t="n">
+        <v>842.2441600000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99</v>
+        <v>96.7</v>
       </c>
       <c r="C12" t="n">
-        <v>20.1</v>
+        <v>30.1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6</v>
+        <v>-3.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1627.56517</v>
+        <v>2327.44371</v>
+      </c>
+      <c r="F12" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>699.8785399999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -674,11 +750,17 @@
       <c r="E13" t="n">
         <v>3136.17869</v>
       </c>
+      <c r="F13" t="n">
+        <v>3.099999999999994</v>
+      </c>
+      <c r="G13" t="n">
+        <v>808.7349800000002</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -693,49 +775,67 @@
       <c r="E14" t="n">
         <v>764.10572</v>
       </c>
+      <c r="F14" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>764.10572</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="n">
-        <v>2416.1711</v>
+        <v>1601.62563</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.299999999999997</v>
+      </c>
+      <c r="G15" t="n">
+        <v>837.51991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E16" t="n">
-        <v>1601.62563</v>
+        <v>2416.1711</v>
+      </c>
+      <c r="F16" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>814.54547</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -750,11 +850,17 @@
       <c r="E17" t="n">
         <v>3371.7754</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G17" t="n">
+        <v>955.6043</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -769,49 +875,67 @@
       <c r="E18" t="n">
         <v>808.03473</v>
       </c>
+      <c r="F18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>808.03473</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.4</v>
+        <v>6.8</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E19" t="n">
-        <v>2488.10479</v>
+        <v>1637.68901</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G19" t="n">
+        <v>829.6542800000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C20" t="n">
-        <v>6.8</v>
+        <v>-8.4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1637.68901</v>
+        <v>2488.10479</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="G20" t="n">
+        <v>850.4157799999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -825,6 +949,12 @@
       </c>
       <c r="E21" t="n">
         <v>3309.01345</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G21" t="n">
+        <v>820.9086600000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/原铝(电解铝).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/原铝(电解铝).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>原铝(电解铝)销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>原铝(电解铝)产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>原铝(电解铝)销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,57 +471,39 @@
       <c r="E2" t="n">
         <v>152.3</v>
       </c>
-      <c r="F2" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>152.3</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.7</v>
+        <v>97.8</v>
       </c>
       <c r="C3" t="n">
-        <v>22.2</v>
+        <v>11.5</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>326.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="G3" t="n">
-        <v>173.8</v>
+        <v>505.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.8</v>
+        <v>98.7</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5</v>
+        <v>22.2</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>505.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>179</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="5">
@@ -550,12 +522,6 @@
       <c r="E5" t="n">
         <v>713.1</v>
       </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>208</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -575,61 +541,43 @@
       <c r="E6" t="n">
         <v>710.10865</v>
       </c>
-      <c r="F6" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>710.10865</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.300000000000001</v>
+        <v>-16.4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1502.92436</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="G7" t="n">
-        <v>792.81571</v>
+        <v>2291.84138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E8" t="n">
-        <v>2291.84138</v>
-      </c>
-      <c r="F8" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>788.9170199999999</v>
+        <v>1502.92436</v>
       </c>
     </row>
     <row r="9">
@@ -650,12 +598,6 @@
       <c r="E9" t="n">
         <v>3107.70229</v>
       </c>
-      <c r="F9" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>815.8609100000003</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -675,61 +617,43 @@
       <c r="E10" t="n">
         <v>785.32101</v>
       </c>
-      <c r="F10" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>785.32101</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>96.7</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1</v>
+        <v>30.1</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6</v>
+        <v>-3.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1627.56517</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="G11" t="n">
-        <v>842.2441600000001</v>
+        <v>2327.44371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.7</v>
+        <v>99</v>
       </c>
       <c r="C12" t="n">
-        <v>30.1</v>
+        <v>20.1</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.5</v>
+        <v>-0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>2327.44371</v>
-      </c>
-      <c r="F12" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>699.8785399999999</v>
+        <v>1627.56517</v>
       </c>
     </row>
     <row r="13">
@@ -750,12 +674,6 @@
       <c r="E13" t="n">
         <v>3136.17869</v>
       </c>
-      <c r="F13" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="G13" t="n">
-        <v>808.7349800000002</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -775,61 +693,43 @@
       <c r="E14" t="n">
         <v>764.10572</v>
       </c>
-      <c r="F14" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>764.10572</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E15" t="n">
-        <v>1601.62563</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="G15" t="n">
-        <v>837.51991</v>
+        <v>2416.1711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E16" t="n">
-        <v>2416.1711</v>
-      </c>
-      <c r="F16" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>814.54547</v>
+        <v>1601.62563</v>
       </c>
     </row>
     <row r="17">
@@ -850,12 +750,6 @@
       <c r="E17" t="n">
         <v>3371.7754</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G17" t="n">
-        <v>955.6043</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -875,61 +769,43 @@
       <c r="E18" t="n">
         <v>808.03473</v>
       </c>
-      <c r="F18" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>808.03473</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C19" t="n">
-        <v>6.8</v>
+        <v>-8.4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1637.68901</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G19" t="n">
-        <v>829.6542800000001</v>
+        <v>2488.10479</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.4</v>
+        <v>6.8</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E20" t="n">
-        <v>2488.10479</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="G20" t="n">
-        <v>850.4157799999998</v>
+        <v>1637.68901</v>
       </c>
     </row>
     <row r="21">
@@ -949,12 +825,6 @@
       </c>
       <c r="E21" t="n">
         <v>3309.01345</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G21" t="n">
-        <v>820.9086600000001</v>
       </c>
     </row>
   </sheetData>
